--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are characteristic of CREST syndrome and are strong indicators of the condition.</t>
+          <t>These skin manifestations are highly specific for CREST syndrome, indicating the presence of the disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If the patient does not report other gastrointestinal symptoms, it may suggest that Type 2 Achalasia is not related to CREST syndrome.</t>
+          <t>If the patient does not report other gastrointestinal symptoms, it may suggest that Type 2 Achalasia is not present.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with Type 2 Achalasia, which can occur in patients with CREST syndrome due to esophageal motility issues.</t>
+          <t>Dysphagia is a common symptom associated with Type 2 Achalasia, which can occur in patients with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +511,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome, supporting the diagnosis when present.</t>
+          <t>Raynaud's phenomenon is a classic feature of CREST syndrome, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Normal esophageal motility on manometry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal motility studies would argue against the presence of Type 2 Achalasia, which is a key component of the diagnosis.</t>
+          <t>Normal findings on esophageal motility testing would argue against the presence of Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reflux symptoms can be indicative of esophageal involvement in CREST syndrome and are often seen in patients with Type 2 Achalasia.</t>
+          <t>Reflux symptoms can be indicative of esophageal motility disorders like Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of skin or vascular changes</t>
+          <t>Absence of digital ulcers or calcinosis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Without skin or vascular changes, the likelihood of CREST syndrome is significantly reduced.</t>
+          <t>These findings are often associated with CREST syndrome; their absence weakens the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a known complication of CREST syndrome, and its presence supports the diagnosis.</t>
+          <t>Pulmonary hypertension is a known complication of CREST syndrome, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history may suggest a lower risk for developing CREST syndrome, which is often associated with autoimmune conditions.</t>
+          <t>A lack of family history may suggest a lower risk for developing CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of skin changes or calcinosis makes CREST syndrome less likely.</t>
+          <t>The absence of skin changes or calcinosis makes CREST syndrome less likely, as these are common features.</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of telangiectasia</t>
+          <t>No history of digital ulcers</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Telangiectasia is a hallmark of CREST syndrome; its absence suggests the diagnosis is unlikely.</t>
+          <t>Digital ulcers are a common complication in CREST syndrome; their absence suggests a lower likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous diagnosis of connective tissue disease</t>
+          <t>No history of telangiectasia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of any connective tissue disease history reduces the likelihood of CREST syndrome.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome; its absence weakens the case for this diagnosis.</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of dysphagia prior to recent symptoms</t>
+          <t>No previous diagnosis of systemic sclerosis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of dysphagia prior to recent symptoms may indicate that achalasia is not related to CREST syndrome.</t>
+          <t>Systemic sclerosis is a broader condition that encompasses CREST syndrome; its absence suggests a lower likelihood of CREST.</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD can be a complication of achalasia, which is relevant in the context of CREST syndrome.</t>
+          <t>GERD can be a complication of esophageal motility disorders like achalasia, which is relevant in the context of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>No history of dysphagia unrelated to achalasia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history of autoimmune diseases may suggest a lower risk for CREST syndrome.</t>
+          <t>Dysphagia that is not related to achalasia may indicate other causes, reducing the likelihood of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases increases the likelihood of CREST syndrome, which is an autoimmune condition.</t>
+          <t>A family history of autoimmune diseases can indicate a genetic predisposition to conditions like CREST syndrome, which is an autoimmune disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of family history of CREST syndrome or related autoimmune diseases suggests a lower likelihood of the diagnosis.</t>
+          <t>Absence of a family history of CREST syndrome or related autoimmune diseases suggests a lower likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations may increase exposure to environmental toxins, which have been associated with autoimmune conditions like CREST syndrome.</t>
+          <t>Certain occupations may increase exposure to environmental toxins, which have been associated with autoimmune diseases, including CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of smoking or alcohol use</t>
+          <t>Engagement in healthy lifestyle practices</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smoking and alcohol use can influence gastrointestinal health; their absence may indicate a lower risk for conditions like Type 2 Achalasia.</t>
+          <t>A healthy lifestyle, including regular exercise and a balanced diet, may reduce the risk of developing autoimmune conditions, including CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -813,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, and its presence in social history supports the diagnosis.</t>
+          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, and a social history indicating this condition supports the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Active participation in regular physical activity</t>
+          <t>No history of smoking or substance abuse</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular physical activity is associated with lower rates of autoimmune diseases, suggesting a lower likelihood of CREST syndrome.</t>
+          <t>Lack of smoking or substance abuse is associated with a lower risk of developing autoimmune diseases, which may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -835,39 +835,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress can exacerbate autoimmune conditions, and participation in high-stress activities may correlate with CREST syndrome.</t>
+          <t>Chronic stress can exacerbate autoimmune conditions, and participation in high-stress activities may correlate with the development of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of connective tissue disorders</t>
+          <t>Stable mental health with no history of anxiety or depression</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of connective tissue disorders in social history reduces the likelihood of having CREST syndrome.</t>
+          <t>Stable mental health may indicate lower stress levels, which can be a contributing factor to autoimmune conditions, thus arguing against CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal issues in family</t>
+          <t>History of gastrointestinal issues in family members</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of gastrointestinal issues may suggest a genetic predisposition to conditions like Type 2 Achalasia, which can occur with CREST syndrome.</t>
+          <t>A family history of gastrointestinal issues may suggest a genetic link to conditions like Type 2 Achalasia, which can occur alongside CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No significant stressors reported in life</t>
+          <t>No significant gastrointestinal complaints</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of significant life stressors may correlate with a lower risk of developing autoimmune conditions like CREST syndrome.</t>
+          <t>Absence of gastrointestinal complaints suggests a lower likelihood of Type 2 Achalasia, which is often associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal skin texture and elasticity</t>
+          <t>Normal vital signs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal skin findings would suggest the absence of sclerodermatous changes, arguing against CREST syndrome.</t>
+          <t>Stable vital signs may indicate the absence of significant systemic involvement, which is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of Raynaud's phenomenon is a common feature in CREST syndrome, supporting the diagnosis.</t>
+          <t>This is a common symptom associated with CREST syndrome, indicating vascular involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of digital ulcers</t>
+          <t>Absence of skin changes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of digital ulcers is inconsistent with CREST syndrome, which often presents with such findings.</t>
+          <t>Lack of skin thickening or other sclerodermatous changes suggests that CREST syndrome is unlikely.</t>
         </is>
       </c>
     </row>
@@ -964,61 +964,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with Type 2 Achalasia, which is relevant to the diagnosis.</t>
+          <t>This symptom is indicative of esophageal motility disorders, which are common in Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal respiratory exam</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal vital signs may indicate the absence of systemic involvement often seen in CREST syndrome.</t>
+          <t>A normal respiratory exam would argue against pulmonary complications often seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal dilation on physical examination</t>
+          <t>Pulmonary hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal dilation can be observed in patients with Type 2 Achalasia, supporting the diagnosis.</t>
+          <t>This can occur in patients with CREST syndrome and is a significant complication that can be detected on physical exam.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of esophageal obstruction</t>
+          <t>No signs of esophageal dilation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of signs indicating esophageal obstruction would argue against Type 2 Achalasia.</t>
+          <t>The absence of esophageal dilation on physical exam would suggest that Type 2 Achalasia is not present.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension signs</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Signs of pulmonary hypertension can be associated with CREST syndrome, providing further support for the diagnosis.</t>
+          <t>The presence of these small dilated blood vessels is a common finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of pulmonary complications</t>
+          <t>Normal capillary refill</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of pulmonary complications would suggest that CREST syndrome is not present.</t>
+          <t>Normal capillary refill time suggests adequate peripheral circulation, which may argue against Raynaud's phenomenon.</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility study</t>
+          <t>Normal esophageal motility studies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility findings would argue against the diagnosis of Type 2 Achalasia.</t>
+          <t>Normal motility studies would suggest that Type 2 Achalasia is not present, arguing against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result for anti-Scl-70 antibodies suggests a lower likelihood of systemic sclerosis, which is associated with CREST syndrome.</t>
+          <t>A negative result for these antibodies, which are associated with systemic sclerosis, would argue against CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1115,61 +1115,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia and supports the presence of Type 2 Achalasia.</t>
+          <t>This imaging finding is indicative of Type 2 Achalasia, which can occur in conjunction with CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal upper gastrointestinal endoscopy findings</t>
+          <t>Normal chest X-ray</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal findings on endoscopy would suggest that there is no structural abnormality consistent with achalasia.</t>
+          <t>A normal chest X-ray would not show any signs of esophageal dilation or other abnormalities associated with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Presence of calcinosis on imaging studies</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are highly specific for CREST syndrome, supporting the diagnosis.</t>
+          <t>Calcinosis is a common manifestation of CREST syndrome, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative rheumatoid factor</t>
+          <t>Absence of skin changes or telangiectasia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative rheumatoid factor test suggests a lower likelihood of autoimmune conditions, including CREST syndrome.</t>
+          <t>The absence of these features would suggest that CREST syndrome is not present.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest X-ray showing dilated esophagus</t>
+          <t>Elevated anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A dilated esophagus on imaging is consistent with achalasia, which can occur in CREST syndrome.</t>
+          <t>These antibodies are specifically associated with CREST syndrome, providing strong support for the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal chest CT scan</t>
+          <t>Negative results for other autoimmune markers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal chest CT would not show any signs of esophageal dilation or other abnormalities associated with achalasia.</t>
+          <t>Negative results for markers commonly associated with autoimmune diseases would argue against the presence of CREST syndrome.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/CREST syndrome with Type 2 Achalasia_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are highly specific for CREST syndrome, indicating the presence of the disease.</t>
+          <t>Dysphagia for both solids and liquids is characteristic of achalasia, particularly Type 2, and is often seen in CREST syndrome due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal symptoms other than dysphagia</t>
+          <t>Absence of skin changes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If the patient does not report other gastrointestinal symptoms, it may suggest that Type 2 Achalasia is not present.</t>
+          <t>The absence of skin changes such as sclerodactyly or calcinosis makes CREST syndrome less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms of dysphagia (difficulty swallowing)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with Type 2 Achalasia, which can occur in patients with CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of connective tissue disease</t>
+          <t>Normal esophageal function</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of any connective tissue disease history makes CREST syndrome less likely.</t>
+          <t>Normal esophageal function would argue against achalasia, which is a key component of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome, supporting the diagnosis.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome, representing skin thickening and tightening, which is a specific feature.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>No history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal findings on esophageal motility testing would argue against the presence of Type 2 Achalasia.</t>
+          <t>The absence of Raynaud's phenomenon reduces the likelihood of CREST syndrome, as it is a common feature.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reflux symptoms can be indicative of esophageal motility disorders like Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Telangiectasia is a specific finding in CREST syndrome, indicating vascular abnormalities.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of digital ulcers or calcinosis</t>
+          <t>No telangiectasia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These findings are often associated with CREST syndrome; their absence weakens the likelihood of the diagnosis.</t>
+          <t>The absence of telangiectasia makes CREST syndrome less likely, as it is a specific feature.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of pulmonary hypertension</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a known complication of CREST syndrome, supporting the diagnosis.</t>
+          <t>A history of esophageal motility disorder is indicative of achalasia, which is often associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of autoimmune diseases</t>
+          <t>No history of esophageal symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history may suggest a lower risk for developing CREST syndrome.</t>
+          <t>The lack of esophageal symptoms such as dysphagia or regurgitation argues against achalasia.</t>
         </is>
       </c>
     </row>
@@ -613,44 +613,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common manifestation of CREST syndrome, indicating the presence of connective tissue disease.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which increases the likelihood of the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of skin changes or calcinosis</t>
+          <t>No history of autoimmune disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of skin changes or calcinosis makes CREST syndrome less likely, as these are common features.</t>
+          <t>The absence of autoimmune disorders makes CREST syndrome less likely, as it is an autoimmune condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Previous diagnosis of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently associated with CREST syndrome, supporting the diagnosis.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of digital ulcers</t>
+          <t>No previous gastrointestinal surgeries</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Digital ulcers are a common complication in CREST syndrome; their absence suggests a lower likelihood of the diagnosis.</t>
+          <t>The absence of gastrointestinal surgeries might suggest that esophageal issues are not due to structural problems, but it does not strongly argue against CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility is a characteristic feature of achalasia and can be linked to CREST syndrome.</t>
+          <t>Esophageal dysmotility is a characteristic feature of Type 2 Achalasia and CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of telangiectasia</t>
+          <t>No history of skin thickening</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Telangiectasia is a hallmark of CREST syndrome; its absence weakens the case for this diagnosis.</t>
+          <t>Skin thickening is a common feature of scleroderma, and its absence may argue against CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous diagnosis of pulmonary hypertension</t>
+          <t>Calcinosis cutis in medical history</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in patients with CREST syndrome, providing further support for the diagnosis.</t>
+          <t>Calcinosis is part of the CREST acronym, indicating a higher likelihood of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No previous diagnosis of systemic sclerosis</t>
+          <t>Absence of digital ulcers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Systemic sclerosis is a broader condition that encompasses CREST syndrome; its absence suggests a lower likelihood of CREST.</t>
+          <t>Digital ulcers are often seen in CREST syndrome, and their absence may suggest a different diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>Telangiectasia noted in past medical records</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD can be a complication of esophageal motility disorders like achalasia, which is relevant in the context of CREST syndrome.</t>
+          <t>Telangiectasia is another component of CREST syndrome, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of dysphagia unrelated to achalasia</t>
+          <t>No history of pulmonary hypertension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dysphagia that is not related to achalasia may indicate other causes, reducing the likelihood of CREST syndrome.</t>
+          <t>Pulmonary hypertension can be associated with CREST syndrome, and its absence may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases can indicate a genetic predisposition to conditions like CREST syndrome, which is an autoimmune disorder.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component, making a family history of such conditions a strong indicator.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No known family history of CREST syndrome or related autoimmune diseases</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a family history of CREST syndrome or related autoimmune diseases suggests a lower likelihood of the diagnosis.</t>
+          <t>The absence of autoimmune diseases in the family reduces the likelihood of a genetic predisposition to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations may increase exposure to environmental toxins, which have been associated with autoimmune diseases, including CREST syndrome.</t>
+          <t>Scleroderma is a key component of CREST syndrome, and a family history increases the likelihood of the syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engagement in healthy lifestyle practices</t>
+          <t>No family history of scleroderma</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A healthy lifestyle, including regular exercise and a balanced diet, may reduce the risk of developing autoimmune conditions, including CREST syndrome.</t>
+          <t>Without a family history of scleroderma, the genetic risk for CREST syndrome is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, and a social history indicating this condition supports the diagnosis.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, and a family history can suggest a genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of smoking or substance abuse</t>
+          <t>No family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of smoking or substance abuse is associated with a lower risk of developing autoimmune diseases, which may argue against the diagnosis.</t>
+          <t>The absence of esophageal motility disorders in the family suggests a lower genetic risk for Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase stress</t>
+          <t>Living in an area with high prevalence of autoimmune diseases</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress can exacerbate autoimmune conditions, and participation in high-stress activities may correlate with the development of CREST syndrome.</t>
+          <t>Environmental factors in certain areas may increase the risk of developing autoimmune conditions like CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable mental health with no history of anxiety or depression</t>
+          <t>Living in an area with low prevalence of autoimmune diseases</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stable mental health may indicate lower stress levels, which can be a contributing factor to autoimmune conditions, thus arguing against CREST syndrome.</t>
+          <t>Environmental factors in areas with low prevalence of autoimmune diseases may reduce the risk of developing such conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal issues in family members</t>
+          <t>Family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of gastrointestinal issues may suggest a genetic link to conditions like Type 2 Achalasia, which can occur alongside CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, and a family history can indicate a higher risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No significant gastrointestinal complaints</t>
+          <t>No family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal complaints suggests a lower likelihood of Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>Without a family history of Raynaud's phenomenon, the likelihood of CREST syndrome is reduced.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin thickening and calcinosis</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome, indicating the presence of sclerodermatous changes.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome, indicating skin thickening and tightening, which is a specific feature of the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal skin texture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stable vital signs may indicate the absence of significant systemic involvement, which is less common in CREST syndrome.</t>
+          <t>Normal skin texture would argue against CREST syndrome, as skin changes are a hallmark of the condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This is a common symptom associated with CREST syndrome, indicating vascular involvement.</t>
+          <t>Telangiectasia, or small dilated blood vessels on the skin, is a common and specific finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of skin changes</t>
+          <t>Absence of telangiectasia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of skin thickening or other sclerodermatous changes suggests that CREST syndrome is unlikely.</t>
+          <t>The absence of telangiectasia would argue against CREST syndrome, as these are common and specific findings.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This symptom is indicative of esophageal motility disorders, which are common in Type 2 Achalasia.</t>
+          <t>Calcinosis, the deposition of calcium in the skin, is a specific feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal respiratory exam</t>
+          <t>No evidence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal respiratory exam would argue against pulmonary complications often seen in CREST syndrome.</t>
+          <t>The absence of Raynaud's phenomenon would argue against CREST syndrome, as it is a common feature.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This can occur in patients with CREST syndrome and is a significant complication that can be detected on physical exam.</t>
+          <t>Raynaud's phenomenon, characterized by color changes in the fingers and toes upon cold exposure, is a specific and common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of esophageal dilation</t>
+          <t>Normal esophageal function</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of esophageal dilation on physical exam would suggest that Type 2 Achalasia is not present.</t>
+          <t>Normal esophageal function would argue against Type 2 Achalasia, which is characterized by esophageal dysmotility.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of these small dilated blood vessels is a common finding in CREST syndrome.</t>
+          <t>Esophageal dysmotility is a key feature of CREST syndrome and is associated with Type 2 Achalasia, indicating esophageal involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal capillary refill</t>
+          <t>Absence of calcinosis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal capillary refill time suggests adequate peripheral circulation, which may argue against Raynaud's phenomenon.</t>
+          <t>The absence of calcinosis would argue against CREST syndrome, as it is a specific feature of the condition.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter pressure</t>
+          <t>High-resolution manometry showing panesophageal pressurization</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>Panesophageal pressurization is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility studies would suggest that Type 2 Achalasia is not present, arguing against the diagnosis.</t>
+          <t>Normal esophageal manometry would argue against achalasia, which is part of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Positive antinuclear antibody (ANA) test</t>
+          <t>Antinuclear antibody (ANA) positive with centromere pattern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A positive ANA test is commonly found in patients with CREST syndrome, supporting the diagnosis.</t>
+          <t>A centromere pattern on ANA testing is highly specific for CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative anti-Scl-70 antibodies</t>
+          <t>Negative ANA test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result for these antibodies, which are associated with systemic sclerosis, would argue against CREST syndrome.</t>
+          <t>A negative ANA test reduces the likelihood of CREST syndrome, which is typically associated with a positive ANA.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with incomplete emptying</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of Type 2 Achalasia, which can occur in conjunction with CREST syndrome.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, which can be associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal chest X-ray</t>
+          <t>Normal barium swallow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal chest X-ray would not show any signs of esophageal dilation or other abnormalities associated with Type 2 Achalasia.</t>
+          <t>A normal barium swallow would not support the presence of achalasia, which is expected in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of calcinosis on imaging studies</t>
+          <t>Esophageal manometry showing incomplete lower esophageal sphincter (LES) relaxation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calcinosis is a common manifestation of CREST syndrome, supporting the diagnosis.</t>
+          <t>Incomplete LES relaxation is a hallmark of achalasia, supporting the diagnosis of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of skin changes or telangiectasia</t>
+          <t>Absence of esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of these features would suggest that CREST syndrome is not present.</t>
+          <t>The absence of esophageal dilation would argue against achalasia, which is expected in this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elevated anti-centromere antibodies</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These antibodies are specifically associated with CREST syndrome, providing strong support for the diagnosis.</t>
+          <t>Esophageal dilation is often seen in achalasia, which can be part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative results for other autoimmune markers</t>
+          <t>Negative centromere antibodies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Negative results for markers commonly associated with autoimmune diseases would argue against the presence of CREST syndrome.</t>
+          <t>Negative centromere antibodies would argue against CREST syndrome, which is often associated with positive centromere antibodies.</t>
         </is>
       </c>
     </row>
